--- a/SPEKTRAL_ANALİZ/olculer_ve_hataları.xlsx
+++ b/SPEKTRAL_ANALİZ/olculer_ve_hataları.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="168">
   <si>
     <t xml:space="preserve">İstasyon</t>
   </si>
@@ -660,7 +660,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -729,7 +729,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -822,13 +826,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:U114"/>
+  <dimension ref="A2:V114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M19" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X32" activeCellId="0" sqref="X32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.7"/>
@@ -1312,6 +1316,9 @@
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
+      <c r="V26" s="8" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
@@ -1366,6 +1373,7 @@
       <c r="U27" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="V27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="12" t="s">
@@ -1412,8 +1420,15 @@
       <c r="Q28" s="10"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
+      <c r="T28" s="14" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="U28" s="14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="12" t="s">
@@ -1456,8 +1471,15 @@
       <c r="Q29" s="10"/>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
+      <c r="T29" s="13" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="U29" s="13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V29" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="12" t="s">
@@ -1504,8 +1526,15 @@
       <c r="Q30" s="10"/>
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
+      <c r="T30" s="14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U30" s="14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="12" t="s">
@@ -1548,8 +1577,15 @@
       <c r="Q31" s="10"/>
       <c r="R31" s="15"/>
       <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
+      <c r="T31" s="14" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="U31" s="14" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="12" t="s">
@@ -1590,8 +1626,15 @@
       <c r="Q32" s="10"/>
       <c r="R32" s="15"/>
       <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
+      <c r="T32" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="U32" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="12" t="s">
@@ -1638,8 +1681,15 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="15"/>
       <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
+      <c r="T33" s="14" t="n">
+        <v>-10.85</v>
+      </c>
+      <c r="U33" s="14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="12" t="s">
@@ -1684,8 +1734,15 @@
       <c r="Q34" s="10"/>
       <c r="R34" s="15"/>
       <c r="S34" s="15"/>
-      <c r="T34" s="15"/>
-      <c r="U34" s="15"/>
+      <c r="T34" s="14" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U34" s="14" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="12" t="s">
@@ -1732,8 +1789,15 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="15"/>
       <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
+      <c r="T35" s="14" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U35" s="14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V35" s="12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="12" t="s">
@@ -1780,8 +1844,15 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="15"/>
       <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
+      <c r="T36" s="14" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="U36" s="14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V36" s="12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="12" t="s">
@@ -1824,8 +1895,15 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="15"/>
       <c r="S37" s="15"/>
-      <c r="T37" s="15"/>
-      <c r="U37" s="15"/>
+      <c r="T37" s="14" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="U37" s="14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V37" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="12" t="s">
@@ -1866,8 +1944,15 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="15"/>
       <c r="S38" s="15"/>
-      <c r="T38" s="15"/>
-      <c r="U38" s="15"/>
+      <c r="T38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="U38" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="V38" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="12" t="s">
@@ -1912,8 +1997,15 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="15"/>
       <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
+      <c r="T39" s="14" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="U39" s="14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V39" s="12" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="12" t="s">
@@ -1960,8 +2052,15 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="15"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
+      <c r="T40" s="14" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U40" s="14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V40" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="12" t="s">
@@ -2004,8 +2103,15 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="15"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
+      <c r="T41" s="14" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="U41" s="14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V41" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="12" t="s">
@@ -2050,8 +2156,15 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="15"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="15"/>
-      <c r="U42" s="15"/>
+      <c r="T42" s="14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U42" s="14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V42" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="12" t="s">
@@ -2096,8 +2209,15 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="15"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
+      <c r="T43" s="14" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U43" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="12" t="s">
@@ -2138,8 +2258,15 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="15"/>
       <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
+      <c r="T44" s="14" t="n">
+        <v>-6.36</v>
+      </c>
+      <c r="U44" s="14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V44" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="12" t="s">
@@ -2182,36 +2309,43 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="15"/>
       <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
+      <c r="T45" s="14" t="n">
+        <v>-6.47</v>
+      </c>
+      <c r="U45" s="14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V45" s="12" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="17"/>
-      <c r="C49" s="18" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="19"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="20"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="8" t="s">
@@ -2234,7 +2368,7 @@
         <v>37</v>
       </c>
       <c r="K51" s="9"/>
-      <c r="L51" s="19"/>
+      <c r="L51" s="20"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="8"/>
@@ -2263,13 +2397,13 @@
       <c r="K52" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L52" s="19"/>
+      <c r="L52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="21" t="s">
         <v>44</v>
       </c>
       <c r="D53" s="14" t="s">
@@ -2294,7 +2428,7 @@
       <c r="K53" s="14" t="n">
         <v>1.47</v>
       </c>
-      <c r="L53" s="19"/>
+      <c r="L53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12" t="s">
@@ -2321,7 +2455,7 @@
       <c r="K54" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L54" s="19"/>
+      <c r="L54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="12" t="s">
@@ -2352,7 +2486,7 @@
       <c r="K55" s="14" t="n">
         <v>0.01</v>
       </c>
-      <c r="L55" s="19"/>
+      <c r="L55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="12" t="s">
@@ -2379,7 +2513,7 @@
       <c r="K56" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L56" s="19"/>
+      <c r="L56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="12" t="s">
@@ -2406,7 +2540,7 @@
       <c r="K57" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L57" s="19"/>
+      <c r="L57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="12" t="s">
@@ -2437,7 +2571,7 @@
       <c r="K58" s="13" t="n">
         <v>0.4</v>
       </c>
-      <c r="L58" s="19"/>
+      <c r="L58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="12" t="s">
@@ -2464,7 +2598,7 @@
       <c r="K59" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L59" s="19"/>
+      <c r="L59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="12" t="s">
@@ -2495,7 +2629,7 @@
       <c r="K60" s="13" t="n">
         <v>1.21</v>
       </c>
-      <c r="L60" s="19"/>
+      <c r="L60" s="20"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="12" t="s">
@@ -2526,7 +2660,7 @@
       <c r="K61" s="14" t="n">
         <v>0.82</v>
       </c>
-      <c r="L61" s="19"/>
+      <c r="L61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="12" t="s">
@@ -2553,7 +2687,7 @@
       <c r="K62" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L62" s="19"/>
+      <c r="L62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="12" t="s">
@@ -2580,7 +2714,7 @@
       <c r="K63" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L63" s="19"/>
+      <c r="L63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="12" t="s">
@@ -2607,7 +2741,7 @@
       <c r="K64" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L64" s="19"/>
+      <c r="L64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="12" t="s">
@@ -2638,7 +2772,7 @@
       <c r="K65" s="14" t="n">
         <v>1.39</v>
       </c>
-      <c r="L65" s="19"/>
+      <c r="L65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="12" t="s">
@@ -2665,7 +2799,7 @@
       <c r="K66" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L66" s="19"/>
+      <c r="L66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="12" t="s">
@@ -2692,7 +2826,7 @@
       <c r="K67" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L67" s="19"/>
+      <c r="L67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="12" t="s">
@@ -2719,7 +2853,7 @@
       <c r="K68" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L68" s="19"/>
+      <c r="L68" s="20"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="12" t="s">
@@ -2746,7 +2880,7 @@
       <c r="K69" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L69" s="19"/>
+      <c r="L69" s="20"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="12" t="s">
@@ -2773,35 +2907,35 @@
       <c r="K70" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L70" s="19"/>
+      <c r="L70" s="20"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="17"/>
-      <c r="C71" s="18" t="s">
+      <c r="B71" s="18"/>
+      <c r="C71" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="17"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="19"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="20"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="8" t="s">
@@ -2824,7 +2958,7 @@
         <v>37</v>
       </c>
       <c r="K73" s="9"/>
-      <c r="L73" s="19"/>
+      <c r="L73" s="20"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="8"/>
@@ -2853,13 +2987,13 @@
       <c r="K74" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L74" s="19"/>
+      <c r="L74" s="20"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D75" s="14" t="s">
@@ -2884,7 +3018,7 @@
       <c r="K75" s="14" t="n">
         <v>1.32</v>
       </c>
-      <c r="L75" s="19"/>
+      <c r="L75" s="20"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="12" t="s">
@@ -2911,7 +3045,7 @@
       <c r="K76" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L76" s="19"/>
+      <c r="L76" s="20"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="12" t="s">
@@ -2942,7 +3076,7 @@
       <c r="K77" s="14" t="n">
         <v>1.56</v>
       </c>
-      <c r="L77" s="19"/>
+      <c r="L77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="12" t="s">
@@ -2969,7 +3103,7 @@
       <c r="K78" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L78" s="19"/>
+      <c r="L78" s="20"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="12" t="s">
@@ -2996,7 +3130,7 @@
       <c r="K79" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L79" s="19"/>
+      <c r="L79" s="20"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="12" t="s">
@@ -3027,38 +3161,38 @@
       <c r="K80" s="13" t="n">
         <v>1.3</v>
       </c>
-      <c r="L80" s="19"/>
+      <c r="L80" s="20"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E81" s="20" t="n">
+      <c r="E81" s="21" t="n">
         <v>2.08</v>
       </c>
-      <c r="F81" s="20" t="n">
+      <c r="F81" s="21" t="n">
         <v>1.21</v>
       </c>
       <c r="G81" s="10"/>
-      <c r="H81" s="20" t="s">
+      <c r="H81" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="I81" s="20" t="s">
+      <c r="I81" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="J81" s="20" t="n">
+      <c r="J81" s="21" t="n">
         <v>1.81</v>
       </c>
-      <c r="K81" s="20" t="n">
+      <c r="K81" s="21" t="n">
         <v>0.68</v>
       </c>
-      <c r="L81" s="19"/>
+      <c r="L81" s="20"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="12" t="s">
@@ -3089,7 +3223,7 @@
       <c r="K82" s="13" t="n">
         <v>1.57</v>
       </c>
-      <c r="L82" s="19"/>
+      <c r="L82" s="20"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="12" t="s">
@@ -3120,7 +3254,7 @@
       <c r="K83" s="14" t="n">
         <v>1.18</v>
       </c>
-      <c r="L83" s="19"/>
+      <c r="L83" s="20"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="12" t="s">
@@ -3147,7 +3281,7 @@
       <c r="K84" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L84" s="19"/>
+      <c r="L84" s="20"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="12" t="s">
@@ -3174,38 +3308,38 @@
       <c r="K85" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L85" s="19"/>
+      <c r="L85" s="20"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D86" s="20" t="s">
+      <c r="D86" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="E86" s="20" t="n">
+      <c r="E86" s="21" t="n">
         <v>1.31</v>
       </c>
-      <c r="F86" s="20" t="n">
+      <c r="F86" s="21" t="n">
         <v>0.78</v>
       </c>
       <c r="G86" s="10"/>
-      <c r="H86" s="20" t="s">
+      <c r="H86" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="I86" s="20" t="s">
+      <c r="I86" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="J86" s="20" t="n">
+      <c r="J86" s="21" t="n">
         <v>3.07</v>
       </c>
-      <c r="K86" s="20" t="n">
+      <c r="K86" s="21" t="n">
         <v>1.14</v>
       </c>
-      <c r="L86" s="19"/>
+      <c r="L86" s="20"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="12" t="s">
@@ -3236,7 +3370,7 @@
       <c r="K87" s="14" t="n">
         <v>1.38</v>
       </c>
-      <c r="L87" s="19"/>
+      <c r="L87" s="20"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="12" t="s">
@@ -3263,69 +3397,69 @@
       <c r="K88" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L88" s="19"/>
+      <c r="L88" s="20"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D89" s="20" t="s">
+      <c r="D89" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E89" s="20" t="n">
+      <c r="E89" s="21" t="n">
         <v>2.4</v>
       </c>
-      <c r="F89" s="20" t="n">
+      <c r="F89" s="21" t="n">
         <v>1.08</v>
       </c>
       <c r="G89" s="10"/>
-      <c r="H89" s="20" t="s">
+      <c r="H89" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I89" s="20" t="s">
+      <c r="I89" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="J89" s="20" t="n">
+      <c r="J89" s="21" t="n">
         <v>3.86</v>
       </c>
-      <c r="K89" s="20" t="n">
+      <c r="K89" s="21" t="n">
         <v>0.95</v>
       </c>
-      <c r="L89" s="19"/>
+      <c r="L89" s="20"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="D90" s="20" t="s">
+      <c r="D90" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E90" s="20" t="n">
+      <c r="E90" s="21" t="n">
         <v>0.84</v>
       </c>
-      <c r="F90" s="20" t="n">
+      <c r="F90" s="21" t="n">
         <v>0.64</v>
       </c>
       <c r="G90" s="10"/>
-      <c r="H90" s="20" t="s">
+      <c r="H90" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="I90" s="20" t="s">
+      <c r="I90" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="J90" s="20" t="n">
+      <c r="J90" s="21" t="n">
         <v>5.3</v>
       </c>
-      <c r="K90" s="20" t="n">
+      <c r="K90" s="21" t="n">
         <v>1.52</v>
       </c>
-      <c r="L90" s="19"/>
+      <c r="L90" s="20"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="12" t="s">
@@ -3352,66 +3486,66 @@
       <c r="K91" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L91" s="19"/>
+      <c r="L91" s="20"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D92" s="20" t="s">
+      <c r="D92" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E92" s="20" t="n">
+      <c r="E92" s="21" t="n">
         <v>2.98</v>
       </c>
-      <c r="F92" s="20" t="n">
+      <c r="F92" s="21" t="n">
         <v>1.06</v>
       </c>
       <c r="G92" s="10"/>
-      <c r="H92" s="20" t="s">
+      <c r="H92" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="I92" s="20" t="s">
+      <c r="I92" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="J92" s="20" t="n">
+      <c r="J92" s="21" t="n">
         <v>0.68</v>
       </c>
-      <c r="K92" s="20" t="n">
+      <c r="K92" s="21" t="n">
         <v>0.78</v>
       </c>
-      <c r="L92" s="19"/>
+      <c r="L92" s="20"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="17"/>
-      <c r="C93" s="18" t="s">
+      <c r="B93" s="18"/>
+      <c r="C93" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="20"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="17"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="19"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="20"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="8" t="s">
@@ -3434,7 +3568,7 @@
         <v>37</v>
       </c>
       <c r="K95" s="9"/>
-      <c r="L95" s="19"/>
+      <c r="L95" s="20"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="8"/>
@@ -3463,13 +3597,13 @@
       <c r="K96" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L96" s="19"/>
+      <c r="L96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="21" t="s">
         <v>112</v>
       </c>
       <c r="D97" s="14" t="s">
@@ -3482,7 +3616,7 @@
         <v>1.46</v>
       </c>
       <c r="G97" s="10"/>
-      <c r="H97" s="20" t="s">
+      <c r="H97" s="21" t="s">
         <v>114</v>
       </c>
       <c r="I97" s="14" t="s">
@@ -3494,38 +3628,38 @@
       <c r="K97" s="14" t="n">
         <v>0.7</v>
       </c>
-      <c r="L97" s="19"/>
+      <c r="L97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D98" s="20" t="s">
+      <c r="D98" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="20" t="n">
+      <c r="E98" s="21" t="n">
         <v>4.6</v>
       </c>
-      <c r="F98" s="20" t="n">
+      <c r="F98" s="21" t="n">
         <v>0.15</v>
       </c>
       <c r="G98" s="10"/>
-      <c r="H98" s="20" t="s">
+      <c r="H98" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="I98" s="20" t="s">
+      <c r="I98" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="J98" s="20" t="n">
+      <c r="J98" s="21" t="n">
         <v>1.23</v>
       </c>
-      <c r="K98" s="20" t="n">
+      <c r="K98" s="21" t="n">
         <v>0.64</v>
       </c>
-      <c r="L98" s="19"/>
+      <c r="L98" s="20"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="12" t="s">
@@ -3556,38 +3690,38 @@
       <c r="K99" s="14" t="n">
         <v>1.24</v>
       </c>
-      <c r="L99" s="19"/>
+      <c r="L99" s="20"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="D100" s="20" t="s">
+      <c r="D100" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="E100" s="20" t="n">
+      <c r="E100" s="21" t="n">
         <v>2.9</v>
       </c>
-      <c r="F100" s="20" t="n">
+      <c r="F100" s="21" t="n">
         <v>1.27</v>
       </c>
       <c r="G100" s="10"/>
-      <c r="H100" s="20" t="s">
+      <c r="H100" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="I100" s="20" t="s">
+      <c r="I100" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J100" s="20" t="n">
+      <c r="J100" s="21" t="n">
         <v>11.95</v>
       </c>
-      <c r="K100" s="20" t="n">
+      <c r="K100" s="21" t="n">
         <v>0.23</v>
       </c>
-      <c r="L100" s="19"/>
+      <c r="L100" s="20"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="12" t="s">
@@ -3614,7 +3748,7 @@
       <c r="K101" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L101" s="19"/>
+      <c r="L101" s="20"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="12" t="s">
@@ -3645,38 +3779,38 @@
       <c r="K102" s="13" t="n">
         <v>1.37</v>
       </c>
-      <c r="L102" s="19"/>
+      <c r="L102" s="20"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="D103" s="20" t="s">
+      <c r="D103" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E103" s="20" t="n">
+      <c r="E103" s="21" t="n">
         <v>6.76</v>
       </c>
-      <c r="F103" s="20" t="n">
+      <c r="F103" s="21" t="n">
         <v>0.72</v>
       </c>
       <c r="G103" s="10"/>
-      <c r="H103" s="20" t="s">
+      <c r="H103" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="I103" s="20" t="s">
+      <c r="I103" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="J103" s="20" t="n">
+      <c r="J103" s="21" t="n">
         <v>10.61</v>
       </c>
-      <c r="K103" s="20" t="n">
+      <c r="K103" s="21" t="n">
         <v>0.98</v>
       </c>
-      <c r="L103" s="19"/>
+      <c r="L103" s="20"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="12" t="s">
@@ -3707,7 +3841,7 @@
       <c r="K104" s="13" t="n">
         <v>1.39</v>
       </c>
-      <c r="L104" s="19"/>
+      <c r="L104" s="20"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="12" t="s">
@@ -3738,38 +3872,38 @@
       <c r="K105" s="14" t="n">
         <v>1.53</v>
       </c>
-      <c r="L105" s="19"/>
+      <c r="L105" s="20"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D106" s="20" t="s">
+      <c r="D106" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E106" s="20" t="n">
+      <c r="E106" s="21" t="n">
         <v>5.24</v>
       </c>
-      <c r="F106" s="20" t="n">
+      <c r="F106" s="21" t="n">
         <v>0.23</v>
       </c>
       <c r="G106" s="10"/>
-      <c r="H106" s="20" t="s">
+      <c r="H106" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="I106" s="20" t="s">
+      <c r="I106" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="J106" s="20" t="n">
+      <c r="J106" s="21" t="n">
         <v>4.46</v>
       </c>
-      <c r="K106" s="20" t="n">
+      <c r="K106" s="21" t="n">
         <v>0.88</v>
       </c>
-      <c r="L106" s="19"/>
+      <c r="L106" s="20"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="12" t="s">
@@ -3796,38 +3930,38 @@
       <c r="K107" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L107" s="19"/>
+      <c r="L107" s="20"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="D108" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E108" s="20" t="n">
+      <c r="E108" s="21" t="n">
         <v>0.22</v>
       </c>
-      <c r="F108" s="20" t="n">
+      <c r="F108" s="21" t="n">
         <v>0.39</v>
       </c>
       <c r="G108" s="10"/>
-      <c r="H108" s="20" t="s">
+      <c r="H108" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="I108" s="20" t="s">
+      <c r="I108" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="J108" s="20" t="n">
+      <c r="J108" s="21" t="n">
         <v>5.28</v>
       </c>
-      <c r="K108" s="20" t="n">
+      <c r="K108" s="21" t="n">
         <v>0.87</v>
       </c>
-      <c r="L108" s="19"/>
+      <c r="L108" s="20"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="12" t="s">
@@ -3858,100 +3992,100 @@
       <c r="K109" s="14" t="n">
         <v>1.32</v>
       </c>
-      <c r="L109" s="19"/>
+      <c r="L109" s="20"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="D110" s="20" t="s">
+      <c r="D110" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="E110" s="20" t="n">
+      <c r="E110" s="21" t="n">
         <v>4.89</v>
       </c>
-      <c r="F110" s="20" t="n">
+      <c r="F110" s="21" t="n">
         <v>0.96</v>
       </c>
       <c r="G110" s="10"/>
-      <c r="H110" s="20" t="s">
+      <c r="H110" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="I110" s="20" t="s">
+      <c r="I110" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="J110" s="20" t="n">
+      <c r="J110" s="21" t="n">
         <v>5.37</v>
       </c>
-      <c r="K110" s="20" t="n">
+      <c r="K110" s="21" t="n">
         <v>0.99</v>
       </c>
-      <c r="L110" s="19"/>
+      <c r="L110" s="20"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="D111" s="20" t="s">
+      <c r="D111" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="E111" s="20" t="n">
+      <c r="E111" s="21" t="n">
         <v>8.55</v>
       </c>
-      <c r="F111" s="20" t="n">
+      <c r="F111" s="21" t="n">
         <v>0.85</v>
       </c>
       <c r="G111" s="10"/>
-      <c r="H111" s="20" t="s">
+      <c r="H111" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="I111" s="20" t="s">
+      <c r="I111" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="J111" s="20" t="n">
+      <c r="J111" s="21" t="n">
         <v>7.34</v>
       </c>
-      <c r="K111" s="20" t="n">
+      <c r="K111" s="21" t="n">
         <v>0.53</v>
       </c>
-      <c r="L111" s="19"/>
+      <c r="L111" s="20"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="D112" s="20" t="s">
+      <c r="D112" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="E112" s="20" t="n">
+      <c r="E112" s="21" t="n">
         <v>8.86</v>
       </c>
-      <c r="F112" s="20" t="n">
+      <c r="F112" s="21" t="n">
         <v>0.73</v>
       </c>
       <c r="G112" s="10"/>
-      <c r="H112" s="20" t="s">
+      <c r="H112" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="I112" s="20" t="s">
+      <c r="I112" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="J112" s="20" t="n">
+      <c r="J112" s="21" t="n">
         <v>2.76</v>
       </c>
-      <c r="K112" s="20" t="n">
+      <c r="K112" s="21" t="n">
         <v>0.28</v>
       </c>
-      <c r="L112" s="19"/>
+      <c r="L112" s="20"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="12" t="s">
@@ -3978,7 +4112,7 @@
       <c r="K113" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L113" s="19"/>
+      <c r="L113" s="20"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="12" t="s">
@@ -4005,10 +4139,10 @@
       <c r="K114" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="L114" s="19"/>
+      <c r="L114" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="109">
+  <mergeCells count="110">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:D3"/>
@@ -4022,6 +4156,7 @@
     <mergeCell ref="M26:P26"/>
     <mergeCell ref="Q26:Q45"/>
     <mergeCell ref="R26:U26"/>
+    <mergeCell ref="V26:V27"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="C31:F31"/>
@@ -4140,7 +4275,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/SPEKTRAL_ANALİZ/olculer_ve_hataları.xlsx
+++ b/SPEKTRAL_ANALİZ/olculer_ve_hataları.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="172">
   <si>
     <t xml:space="preserve">İstasyon</t>
   </si>
@@ -113,6 +113,9 @@
     <t xml:space="preserve">Tide Gauge</t>
   </si>
   <si>
+    <t xml:space="preserve">VLM (mm / yıl)</t>
+  </si>
+  <si>
     <t xml:space="preserve">MSS (m)</t>
   </si>
   <si>
@@ -123,6 +126,15 @@
   </si>
   <si>
     <t xml:space="preserve">σ_trend (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XTRACK -TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALES – TG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAR – TG</t>
   </si>
   <si>
     <t xml:space="preserve">XTRACK</t>
@@ -531,8 +543,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -569,7 +582,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +617,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
     <fill>
@@ -660,7 +679,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -705,6 +724,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -725,6 +748,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -733,15 +764,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -802,7 +841,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF860D"/>
       <rgbColor rgb="FFEA7500"/>
@@ -821,21 +860,62 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>739800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>23760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>10800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>119160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13104360" y="7664040"/>
+          <a:ext cx="7571880" cy="2046240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:V114"/>
+  <dimension ref="A2:AB114"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M19" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X32" activeCellId="0" sqref="X32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P23" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V38" activeCellId="0" sqref="V38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.57"/>
@@ -1319,2830 +1399,3114 @@
       <c r="V26" s="8" t="s">
         <v>0</v>
       </c>
+      <c r="X26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
-      <c r="C27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="E27" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="F27" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I27" s="11" t="s">
+      <c r="H27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="I27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="11" t="s">
+      <c r="J27" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="K27" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="N27" s="11" t="s">
+      <c r="M27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="N27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="O27" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="P27" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="Q27" s="10"/>
-      <c r="R27" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="S27" s="11" t="s">
+      <c r="R27" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="S27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="U27" s="11" t="s">
+      <c r="T27" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="U27" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="V27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z27" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA27" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="13" t="n">
+      <c r="C28" s="14" t="n">
         <v>23.513</v>
       </c>
-      <c r="D28" s="13" t="n">
+      <c r="D28" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E28" s="13" t="n">
+      <c r="E28" s="14" t="n">
         <v>2.38</v>
       </c>
-      <c r="F28" s="13" t="n">
+      <c r="F28" s="14" t="n">
         <v>1.2</v>
       </c>
       <c r="G28" s="10"/>
-      <c r="H28" s="14" t="n">
+      <c r="H28" s="15" t="n">
         <v>25.058</v>
       </c>
-      <c r="I28" s="14" t="n">
+      <c r="I28" s="15" t="n">
         <v>2.1</v>
       </c>
-      <c r="J28" s="14" t="n">
+      <c r="J28" s="15" t="n">
         <v>-0.53</v>
       </c>
-      <c r="K28" s="14" t="n">
+      <c r="K28" s="15" t="n">
         <v>3.4</v>
       </c>
       <c r="L28" s="10"/>
-      <c r="M28" s="14" t="n">
+      <c r="M28" s="15" t="n">
         <v>24.458</v>
       </c>
-      <c r="N28" s="14" t="n">
+      <c r="N28" s="15" t="n">
         <v>8.3</v>
       </c>
-      <c r="O28" s="14" t="n">
+      <c r="O28" s="15" t="n">
         <v>-19.88</v>
       </c>
-      <c r="P28" s="14" t="n">
+      <c r="P28" s="15" t="n">
         <v>27.9</v>
       </c>
       <c r="Q28" s="10"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="14" t="n">
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="15" t="n">
         <v>0.73</v>
       </c>
-      <c r="U28" s="14" t="n">
+      <c r="U28" s="15" t="n">
         <v>1.6</v>
       </c>
-      <c r="V28" s="12" t="s">
+      <c r="V28" s="13" t="s">
         <v>7</v>
       </c>
+      <c r="W28" s="17"/>
+      <c r="X28" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y28" s="18" t="n">
+        <f aca="false">E28-T28</f>
+        <v>1.65</v>
+      </c>
+      <c r="Z28" s="18" t="n">
+        <f aca="false">J28-T28</f>
+        <v>-1.26</v>
+      </c>
+      <c r="AA28" s="18" t="n">
+        <f aca="false">O28-T28</f>
+        <v>-20.61</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="16" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G29" s="10"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="16" t="s">
+      <c r="H29" s="19"/>
+      <c r="I29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>9</v>
       </c>
       <c r="L29" s="10"/>
-      <c r="M29" s="14" t="n">
+      <c r="M29" s="15" t="n">
         <v>29.564</v>
       </c>
-      <c r="N29" s="14" t="n">
+      <c r="N29" s="15" t="n">
         <v>3.3</v>
       </c>
-      <c r="O29" s="14" t="n">
+      <c r="O29" s="15" t="n">
         <v>0.76</v>
       </c>
-      <c r="P29" s="14" t="n">
+      <c r="P29" s="15" t="n">
         <v>10.8</v>
       </c>
       <c r="Q29" s="10"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="13" t="n">
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="14" t="n">
         <v>2.86</v>
       </c>
-      <c r="U29" s="13" t="n">
+      <c r="U29" s="14" t="n">
         <v>0.8</v>
       </c>
-      <c r="V29" s="12" t="s">
+      <c r="V29" s="13" t="s">
         <v>8</v>
       </c>
+      <c r="W29" s="17"/>
+      <c r="X29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA29" s="21" t="n">
+        <f aca="false">O29-T29</f>
+        <v>-2.1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="14" t="n">
+      <c r="C30" s="15" t="n">
         <v>25.585</v>
       </c>
-      <c r="D30" s="14" t="n">
+      <c r="D30" s="15" t="n">
         <v>0.7</v>
       </c>
-      <c r="E30" s="14" t="n">
+      <c r="E30" s="15" t="n">
         <v>1.45</v>
       </c>
-      <c r="F30" s="14" t="n">
+      <c r="F30" s="15" t="n">
         <v>0.4</v>
       </c>
       <c r="G30" s="10"/>
-      <c r="H30" s="14" t="n">
+      <c r="H30" s="15" t="n">
         <v>25.615</v>
       </c>
-      <c r="I30" s="14" t="n">
+      <c r="I30" s="15" t="n">
         <v>1.8</v>
       </c>
-      <c r="J30" s="14" t="n">
+      <c r="J30" s="15" t="n">
         <v>-2.35</v>
       </c>
-      <c r="K30" s="14" t="n">
+      <c r="K30" s="15" t="n">
         <v>3</v>
       </c>
       <c r="L30" s="10"/>
-      <c r="M30" s="14" t="n">
+      <c r="M30" s="15" t="n">
         <v>23.59</v>
       </c>
-      <c r="N30" s="14" t="n">
+      <c r="N30" s="15" t="n">
         <v>5.9</v>
       </c>
-      <c r="O30" s="14" t="n">
+      <c r="O30" s="15" t="n">
         <v>-25.28</v>
       </c>
-      <c r="P30" s="14" t="n">
+      <c r="P30" s="15" t="n">
         <v>19.8</v>
       </c>
       <c r="Q30" s="10"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U30" s="14" t="n">
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="15" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U30" s="15" t="n">
         <v>0.8</v>
       </c>
-      <c r="V30" s="12" t="s">
+      <c r="V30" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="W30" s="17"/>
+      <c r="X30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y30" s="18" t="n">
+        <f aca="false">E30-T30</f>
+        <v>-0.78</v>
+      </c>
+      <c r="Z30" s="18" t="n">
+        <f aca="false">J30-T30</f>
+        <v>-4.58</v>
+      </c>
+      <c r="AA30" s="18" t="n">
+        <f aca="false">O30-T30</f>
+        <v>-27.51</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" s="16" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G31" s="10"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="16" t="s">
+      <c r="H31" s="19"/>
+      <c r="I31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="19" t="s">
         <v>9</v>
       </c>
       <c r="L31" s="10"/>
-      <c r="M31" s="14" t="n">
+      <c r="M31" s="15" t="n">
         <v>26.584</v>
       </c>
-      <c r="N31" s="14" t="n">
+      <c r="N31" s="15" t="n">
         <v>3.1</v>
       </c>
-      <c r="O31" s="14" t="n">
+      <c r="O31" s="15" t="n">
         <v>7.62</v>
       </c>
-      <c r="P31" s="14" t="n">
+      <c r="P31" s="15" t="n">
         <v>10.9</v>
       </c>
       <c r="Q31" s="10"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="14" t="n">
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="15" t="n">
         <v>37.94</v>
       </c>
-      <c r="U31" s="14" t="n">
+      <c r="U31" s="15" t="n">
         <v>4.1</v>
       </c>
-      <c r="V31" s="12" t="s">
+      <c r="V31" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="W31" s="17"/>
+      <c r="X31" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA31" s="21" t="n">
+        <f aca="false">O31-T31</f>
+        <v>-30.32</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="16" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G32" s="10"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="16" t="s">
+      <c r="H32" s="19"/>
+      <c r="I32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="19" t="s">
         <v>9</v>
       </c>
       <c r="L32" s="10"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O32" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P32" s="16" t="s">
+      <c r="M32" s="19"/>
+      <c r="N32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O32" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P32" s="19" t="s">
         <v>9</v>
       </c>
       <c r="Q32" s="10"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="U32" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="V32" s="12" t="s">
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="U32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V32" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="W32" s="17"/>
+      <c r="X32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA32" s="20" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="14" t="n">
+      <c r="C33" s="15" t="n">
         <v>26.56</v>
       </c>
-      <c r="D33" s="14" t="n">
+      <c r="D33" s="15" t="n">
         <v>0.8</v>
       </c>
-      <c r="E33" s="14" t="n">
+      <c r="E33" s="15" t="n">
         <v>2.48</v>
       </c>
-      <c r="F33" s="14" t="n">
+      <c r="F33" s="15" t="n">
         <v>1.1</v>
       </c>
       <c r="G33" s="10"/>
-      <c r="H33" s="14" t="n">
+      <c r="H33" s="15" t="n">
         <v>27.341</v>
       </c>
-      <c r="I33" s="14" t="n">
+      <c r="I33" s="15" t="n">
         <v>1.5</v>
       </c>
-      <c r="J33" s="14" t="n">
+      <c r="J33" s="15" t="n">
         <v>0.27</v>
       </c>
-      <c r="K33" s="14" t="n">
+      <c r="K33" s="15" t="n">
         <v>2.6</v>
       </c>
       <c r="L33" s="10"/>
-      <c r="M33" s="14" t="n">
+      <c r="M33" s="15" t="n">
         <v>26.044</v>
       </c>
-      <c r="N33" s="14" t="n">
+      <c r="N33" s="15" t="n">
         <v>2.2</v>
       </c>
-      <c r="O33" s="14" t="n">
+      <c r="O33" s="15" t="n">
         <v>9.78</v>
       </c>
-      <c r="P33" s="14" t="n">
+      <c r="P33" s="15" t="n">
         <v>7.4</v>
       </c>
       <c r="Q33" s="10"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="14" t="n">
-        <v>-10.85</v>
-      </c>
-      <c r="U33" s="14" t="n">
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="15" t="n">
+        <v>-7.84</v>
+      </c>
+      <c r="U33" s="15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="W33" s="17"/>
+      <c r="X33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y33" s="18" t="n">
+        <f aca="false">E33-T33</f>
+        <v>10.32</v>
+      </c>
+      <c r="Z33" s="18" t="n">
+        <f aca="false">J33-T33</f>
+        <v>8.11</v>
+      </c>
+      <c r="AA33" s="18" t="n">
+        <f aca="false">O33-T33</f>
+        <v>17.62</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="15" t="n">
+        <v>38.676</v>
+      </c>
+      <c r="I34" s="15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J34" s="15" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="K34" s="15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L34" s="10"/>
+      <c r="M34" s="15" t="n">
+        <v>38.259</v>
+      </c>
+      <c r="N34" s="15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O34" s="15" t="n">
+        <v>-17.11</v>
+      </c>
+      <c r="P34" s="15" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="15" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U34" s="15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="W34" s="17"/>
+      <c r="X34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z34" s="22" t="n">
+        <f aca="false">J34-T34</f>
+        <v>2.19</v>
+      </c>
+      <c r="AA34" s="22" t="n">
+        <f aca="false">O34-T34</f>
+        <v>-19.48</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="15" t="n">
+        <v>25.105</v>
+      </c>
+      <c r="D35" s="15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E35" s="15" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F35" s="15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="15" t="n">
+        <v>25.283</v>
+      </c>
+      <c r="I35" s="15" t="n">
         <v>1.6</v>
       </c>
-      <c r="V33" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="10"/>
-      <c r="H34" s="14" t="n">
-        <v>38.676</v>
-      </c>
-      <c r="I34" s="14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J34" s="14" t="n">
+      <c r="J35" s="15" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K35" s="15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="15" t="n">
+        <v>24.393</v>
+      </c>
+      <c r="N35" s="15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O35" s="15" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="P35" s="15" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="15" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U35" s="15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="W35" s="17"/>
+      <c r="X35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y35" s="18" t="n">
+        <f aca="false">E35-T35</f>
+        <v>-0.17</v>
+      </c>
+      <c r="Z35" s="18" t="n">
+        <f aca="false">J35-T35</f>
+        <v>2.79</v>
+      </c>
+      <c r="AA35" s="18" t="n">
+        <f aca="false">O35-T35</f>
+        <v>10.86</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="14" t="n">
+        <v>39.734</v>
+      </c>
+      <c r="D36" s="14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E36" s="14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F36" s="14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="15" t="n">
+        <v>40.429</v>
+      </c>
+      <c r="I36" s="15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J36" s="15" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K36" s="15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L36" s="10"/>
+      <c r="M36" s="15" t="n">
+        <v>40.068</v>
+      </c>
+      <c r="N36" s="15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O36" s="15" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="P36" s="15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="U36" s="15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="V36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="W36" s="17"/>
+      <c r="X36" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y36" s="18" t="n">
+        <f aca="false">E36-T36</f>
+        <v>0.63</v>
+      </c>
+      <c r="Z36" s="18" t="n">
+        <f aca="false">J36-T36</f>
+        <v>2.49</v>
+      </c>
+      <c r="AA36" s="18" t="n">
+        <f aca="false">O36-T36</f>
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="15" t="n">
+        <v>38.217</v>
+      </c>
+      <c r="N37" s="15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O37" s="15" t="n">
+        <v>11.18</v>
+      </c>
+      <c r="P37" s="15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="15" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="U37" s="15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="V37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="W37" s="17"/>
+      <c r="X37" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA37" s="21" t="n">
+        <f aca="false">O37-T37</f>
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="10"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="U38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="V38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="W38" s="17"/>
+      <c r="X38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z38" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA38" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="15" t="n">
+        <v>38.093</v>
+      </c>
+      <c r="I39" s="15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J39" s="15" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="K39" s="15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="15" t="n">
+        <v>37.417</v>
+      </c>
+      <c r="N39" s="15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O39" s="15" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="P39" s="15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="15" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="U39" s="15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W39" s="17"/>
+      <c r="X39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z39" s="18" t="n">
+        <f aca="false">J39-T39</f>
+        <v>-2.28</v>
+      </c>
+      <c r="AA39" s="18" t="n">
+        <f aca="false">O39-T39</f>
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="15" t="n">
+        <v>38.162</v>
+      </c>
+      <c r="D40" s="15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E40" s="15" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="F40" s="15" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="15" t="n">
+        <v>39.343</v>
+      </c>
+      <c r="I40" s="15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J40" s="15" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K40" s="15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="15" t="n">
+        <v>39.311</v>
+      </c>
+      <c r="N40" s="15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O40" s="15" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="P40" s="15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U40" s="15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="W40" s="17"/>
+      <c r="X40" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y40" s="18" t="n">
+        <f aca="false">E40-T40</f>
+        <v>0.0600000000000001</v>
+      </c>
+      <c r="Z40" s="18" t="n">
+        <f aca="false">J40-T40</f>
+        <v>-0.97</v>
+      </c>
+      <c r="AA40" s="18" t="n">
+        <f aca="false">O40-T40</f>
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="15" t="n">
+        <v>34.362</v>
+      </c>
+      <c r="N41" s="15" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O41" s="15" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="P41" s="15" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="15" t="n">
         <v>4.56</v>
       </c>
-      <c r="K34" s="14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="14" t="n">
-        <v>38.259</v>
-      </c>
-      <c r="N34" s="14" t="n">
+      <c r="U41" s="15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="W41" s="17"/>
+      <c r="X41" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y41" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z41" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA41" s="21" t="n">
+        <f aca="false">O41-T41</f>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="15" t="n">
+        <v>29.553</v>
+      </c>
+      <c r="I42" s="15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J42" s="15" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="K42" s="15" t="n">
         <v>4.2</v>
       </c>
-      <c r="O34" s="14" t="n">
-        <v>-17.11</v>
-      </c>
-      <c r="P34" s="14" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="15"/>
-      <c r="S34" s="15"/>
-      <c r="T34" s="14" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="U34" s="14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="V34" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="14" t="n">
-        <v>25.105</v>
-      </c>
-      <c r="D35" s="14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E35" s="14" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F35" s="14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="14" t="n">
-        <v>25.283</v>
-      </c>
-      <c r="I35" s="14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J35" s="14" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K35" s="14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="14" t="n">
-        <v>24.393</v>
-      </c>
-      <c r="N35" s="14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O35" s="14" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="P35" s="14" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="14" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="U35" s="14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="V35" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="13" t="n">
-        <v>39.734</v>
-      </c>
-      <c r="D36" s="13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E36" s="13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="F36" s="13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="H36" s="14" t="n">
-        <v>40.429</v>
-      </c>
-      <c r="I36" s="14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="J36" s="14" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="K36" s="14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="14" t="n">
-        <v>40.068</v>
-      </c>
-      <c r="N36" s="14" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O36" s="14" t="n">
-        <v>27.58</v>
-      </c>
-      <c r="P36" s="14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="14" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="U36" s="14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V36" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="14" t="n">
-        <v>38.217</v>
-      </c>
-      <c r="N37" s="14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O37" s="14" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="P37" s="14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="15"/>
-      <c r="S37" s="15"/>
-      <c r="T37" s="14" t="n">
-        <v>-0.77</v>
-      </c>
-      <c r="U37" s="14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="V37" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="10"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P38" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="U38" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="V38" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="10"/>
-      <c r="H39" s="14" t="n">
-        <v>38.093</v>
-      </c>
-      <c r="I39" s="14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J39" s="14" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="K39" s="14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="14" t="n">
-        <v>37.417</v>
-      </c>
-      <c r="N39" s="14" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O39" s="14" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="P39" s="14" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="14" t="n">
-        <v>-1.72</v>
-      </c>
-      <c r="U39" s="14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V39" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="14" t="n">
-        <v>38.162</v>
-      </c>
-      <c r="D40" s="14" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E40" s="14" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="F40" s="14" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G40" s="10"/>
-      <c r="H40" s="14" t="n">
-        <v>39.343</v>
-      </c>
-      <c r="I40" s="14" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J40" s="14" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="K40" s="14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="14" t="n">
-        <v>39.311</v>
-      </c>
-      <c r="N40" s="14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O40" s="14" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="P40" s="14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="15"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="14" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="U40" s="14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="V40" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="14" t="n">
-        <v>34.362</v>
-      </c>
-      <c r="N41" s="14" t="n">
+      <c r="L42" s="10"/>
+      <c r="M42" s="15" t="n">
+        <v>28.025</v>
+      </c>
+      <c r="N42" s="15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O42" s="15" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="P42" s="15" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U42" s="15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V42" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="W42" s="17"/>
+      <c r="X42" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y42" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z42" s="22" t="n">
+        <f aca="false">J42-T42</f>
+        <v>3.08</v>
+      </c>
+      <c r="AA42" s="22" t="n">
+        <f aca="false">O42-T42</f>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="15" t="n">
+        <v>24.252</v>
+      </c>
+      <c r="I43" s="15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J43" s="15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K43" s="15" t="n">
         <v>5.1</v>
       </c>
-      <c r="O41" s="14" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="P41" s="14" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="14" t="n">
-        <v>4.56</v>
-      </c>
-      <c r="U41" s="14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V41" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="10"/>
-      <c r="H42" s="14" t="n">
-        <v>29.553</v>
-      </c>
-      <c r="I42" s="14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J42" s="14" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="K42" s="14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="14" t="n">
-        <v>28.025</v>
-      </c>
-      <c r="N42" s="14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O42" s="14" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="P42" s="14" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="15"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U42" s="14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V42" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="12" t="s">
+      <c r="L43" s="10"/>
+      <c r="M43" s="15" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="N43" s="15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O43" s="15" t="n">
+        <v>-8.18</v>
+      </c>
+      <c r="P43" s="15" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="15" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U43" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="10"/>
-      <c r="H43" s="14" t="n">
-        <v>24.252</v>
-      </c>
-      <c r="I43" s="14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J43" s="14" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="K43" s="14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="14" t="n">
-        <v>21.96</v>
-      </c>
-      <c r="N43" s="14" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O43" s="14" t="n">
-        <v>-8.18</v>
-      </c>
-      <c r="P43" s="14" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="14" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="U43" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V43" s="12" t="s">
+      <c r="W43" s="17"/>
+      <c r="X43" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="Y43" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z43" s="22" t="n">
+        <f aca="false">J43-T43</f>
+        <v>1.63</v>
+      </c>
+      <c r="AA43" s="22" t="n">
+        <f aca="false">O43-T43</f>
+        <v>-8.34</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="16" t="s">
+      <c r="C44" s="19"/>
+      <c r="D44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G44" s="10"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K44" s="16" t="s">
+      <c r="H44" s="19"/>
+      <c r="I44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K44" s="19" t="s">
         <v>9</v>
       </c>
       <c r="L44" s="10"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O44" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P44" s="16" t="s">
+      <c r="M44" s="19"/>
+      <c r="N44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P44" s="19" t="s">
         <v>9</v>
       </c>
       <c r="Q44" s="10"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="14" t="n">
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="15" t="n">
         <v>-6.36</v>
       </c>
-      <c r="U44" s="14" t="n">
+      <c r="U44" s="15" t="n">
         <v>2.6</v>
       </c>
-      <c r="V44" s="12" t="s">
+      <c r="V44" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="W44" s="17"/>
+      <c r="X44" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA44" s="20" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="16" t="s">
+      <c r="C45" s="19"/>
+      <c r="D45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="10"/>
-      <c r="H45" s="14" t="n">
+      <c r="H45" s="15" t="n">
         <v>37.542</v>
       </c>
-      <c r="I45" s="14" t="n">
+      <c r="I45" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="J45" s="14" t="n">
+      <c r="J45" s="15" t="n">
         <v>0.07</v>
       </c>
-      <c r="K45" s="14" t="n">
+      <c r="K45" s="15" t="n">
         <v>4.5</v>
       </c>
       <c r="L45" s="10"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="O45" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="P45" s="16" t="s">
+      <c r="M45" s="19"/>
+      <c r="N45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O45" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P45" s="19" t="s">
         <v>9</v>
       </c>
       <c r="Q45" s="10"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="14" t="n">
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="15" t="n">
         <v>-6.47</v>
       </c>
-      <c r="U45" s="14" t="n">
+      <c r="U45" s="15" t="n">
         <v>2.1</v>
       </c>
-      <c r="V45" s="12" t="s">
+      <c r="V45" s="13" t="s">
         <v>25</v>
       </c>
+      <c r="W45" s="17"/>
+      <c r="X45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y45" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z45" s="22" t="n">
+        <f aca="false">J45-T45</f>
+        <v>6.54</v>
+      </c>
+      <c r="AA45" s="20" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="18"/>
-      <c r="C49" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="20"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="25"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="10"/>
       <c r="H51" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K51" s="9"/>
-      <c r="L51" s="20"/>
+      <c r="L51" s="25"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="8"/>
-      <c r="C52" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>41</v>
+      <c r="C52" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="G52" s="10"/>
-      <c r="H52" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L52" s="20"/>
+      <c r="H52" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L52" s="25"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="14" t="n">
+      <c r="C53" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="15" t="n">
         <v>2.4</v>
       </c>
-      <c r="F53" s="14" t="n">
+      <c r="F53" s="15" t="n">
         <v>0.14</v>
       </c>
       <c r="G53" s="10"/>
-      <c r="H53" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="J53" s="14" t="n">
+      <c r="H53" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J53" s="15" t="n">
         <v>6.77</v>
       </c>
-      <c r="K53" s="14" t="n">
+      <c r="K53" s="15" t="n">
         <v>1.47</v>
       </c>
-      <c r="L53" s="20"/>
+      <c r="L53" s="25"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="16" t="s">
+      <c r="C54" s="19"/>
+      <c r="D54" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G54" s="10"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J54" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K54" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L54" s="20"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K54" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54" s="25"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="14" t="n">
+      <c r="C55" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="15" t="n">
         <v>1.21</v>
       </c>
-      <c r="F55" s="14" t="n">
+      <c r="F55" s="15" t="n">
         <v>0.28</v>
       </c>
       <c r="G55" s="10"/>
-      <c r="H55" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J55" s="14" t="n">
+      <c r="H55" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="15" t="n">
         <v>5.54</v>
       </c>
-      <c r="K55" s="14" t="n">
+      <c r="K55" s="15" t="n">
         <v>0.01</v>
       </c>
-      <c r="L55" s="20"/>
+      <c r="L55" s="25"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="16" t="s">
+      <c r="C56" s="19"/>
+      <c r="D56" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G56" s="10"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J56" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K56" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L56" s="20"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56" s="25"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="16" t="s">
+      <c r="C57" s="19"/>
+      <c r="D57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G57" s="10"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J57" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K57" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L57" s="20"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57" s="25"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C58" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="13" t="n">
+      <c r="C58" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58" s="14" t="n">
         <v>1.92</v>
       </c>
-      <c r="F58" s="13" t="n">
+      <c r="F58" s="14" t="n">
         <v>1.38</v>
       </c>
       <c r="G58" s="10"/>
-      <c r="H58" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J58" s="13" t="n">
+      <c r="H58" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J58" s="14" t="n">
         <v>7.07</v>
       </c>
-      <c r="K58" s="13" t="n">
+      <c r="K58" s="14" t="n">
         <v>0.4</v>
       </c>
-      <c r="L58" s="20"/>
+      <c r="L58" s="25"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="16" t="s">
+      <c r="C59" s="19"/>
+      <c r="D59" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G59" s="10"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J59" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K59" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L59" s="20"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59" s="25"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E60" s="13" t="n">
+      <c r="C60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="14" t="n">
         <v>1.95</v>
       </c>
-      <c r="F60" s="13" t="n">
+      <c r="F60" s="14" t="n">
         <v>1.29</v>
       </c>
       <c r="G60" s="10"/>
-      <c r="H60" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J60" s="13" t="n">
+      <c r="H60" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" s="14" t="n">
         <v>7.96</v>
       </c>
-      <c r="K60" s="13" t="n">
+      <c r="K60" s="14" t="n">
         <v>1.21</v>
       </c>
-      <c r="L60" s="20"/>
+      <c r="L60" s="25"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="14" t="n">
+      <c r="C61" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E61" s="15" t="n">
         <v>0.87</v>
       </c>
-      <c r="F61" s="14" t="n">
+      <c r="F61" s="15" t="n">
         <v>0.73</v>
       </c>
       <c r="G61" s="10"/>
-      <c r="H61" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="J61" s="14" t="n">
+      <c r="H61" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J61" s="15" t="n">
         <v>4.17</v>
       </c>
-      <c r="K61" s="14" t="n">
+      <c r="K61" s="15" t="n">
         <v>0.82</v>
       </c>
-      <c r="L61" s="20"/>
+      <c r="L61" s="25"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="16" t="s">
+      <c r="C62" s="19"/>
+      <c r="D62" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G62" s="10"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K62" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L62" s="20"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62" s="25"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="16" t="s">
+      <c r="C63" s="19"/>
+      <c r="D63" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G63" s="10"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J63" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K63" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L63" s="20"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K63" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L63" s="25"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" s="16" t="s">
+      <c r="C64" s="19"/>
+      <c r="D64" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G64" s="10"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J64" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K64" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L64" s="20"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K64" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64" s="25"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E65" s="14" t="n">
+      <c r="C65" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="15" t="n">
         <v>1.04</v>
       </c>
-      <c r="F65" s="14" t="n">
+      <c r="F65" s="15" t="n">
         <v>0.95</v>
       </c>
       <c r="G65" s="10"/>
-      <c r="H65" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I65" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J65" s="14" t="n">
+      <c r="H65" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J65" s="15" t="n">
         <v>5.33</v>
       </c>
-      <c r="K65" s="14" t="n">
+      <c r="K65" s="15" t="n">
         <v>1.39</v>
       </c>
-      <c r="L65" s="20"/>
+      <c r="L65" s="25"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="16" t="s">
+      <c r="C66" s="19"/>
+      <c r="D66" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G66" s="10"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K66" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L66" s="20"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K66" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L66" s="25"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="16" t="s">
+      <c r="C67" s="19"/>
+      <c r="D67" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G67" s="10"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K67" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L67" s="20"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K67" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L67" s="25"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" s="16" t="s">
+      <c r="C68" s="19"/>
+      <c r="D68" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="10"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K68" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L68" s="20"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L68" s="25"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="16" t="s">
+      <c r="C69" s="19"/>
+      <c r="D69" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="10"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J69" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K69" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L69" s="20"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L69" s="25"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="16" t="s">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G70" s="10"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K70" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L70" s="20"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L70" s="25"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="18"/>
-      <c r="C71" s="19" t="s">
+      <c r="B71" s="23"/>
+      <c r="C71" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="20"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="25"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="20"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="25"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="10"/>
       <c r="H73" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K73" s="9"/>
-      <c r="L73" s="20"/>
+      <c r="L73" s="25"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="8"/>
-      <c r="C74" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D74" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>41</v>
+      <c r="C74" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="G74" s="10"/>
-      <c r="H74" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J74" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K74" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L74" s="20"/>
+      <c r="H74" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L74" s="25"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C75" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="14" t="n">
+      <c r="C75" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75" s="15" t="n">
         <v>1.15</v>
       </c>
-      <c r="F75" s="14" t="n">
+      <c r="F75" s="15" t="n">
         <v>0.72</v>
       </c>
       <c r="G75" s="10"/>
-      <c r="H75" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I75" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J75" s="14" t="n">
+      <c r="H75" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J75" s="15" t="n">
         <v>3.96</v>
       </c>
-      <c r="K75" s="14" t="n">
+      <c r="K75" s="15" t="n">
         <v>1.32</v>
       </c>
-      <c r="L75" s="20"/>
+      <c r="L75" s="25"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="16" t="s">
+      <c r="C76" s="19"/>
+      <c r="D76" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G76" s="10"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J76" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K76" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L76" s="20"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J76" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K76" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L76" s="25"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E77" s="14" t="n">
+      <c r="C77" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="15" t="n">
         <v>2.35</v>
       </c>
-      <c r="F77" s="14" t="n">
+      <c r="F77" s="15" t="n">
         <v>0.34</v>
       </c>
       <c r="G77" s="10"/>
-      <c r="H77" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I77" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J77" s="14" t="n">
+      <c r="H77" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I77" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J77" s="15" t="n">
         <v>4.93</v>
       </c>
-      <c r="K77" s="14" t="n">
+      <c r="K77" s="15" t="n">
         <v>1.56</v>
       </c>
-      <c r="L77" s="20"/>
+      <c r="L77" s="25"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="16" t="s">
+      <c r="C78" s="19"/>
+      <c r="D78" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G78" s="10"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K78" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L78" s="20"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J78" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78" s="25"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="16" t="s">
+      <c r="C79" s="19"/>
+      <c r="D79" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G79" s="10"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J79" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K79" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L79" s="20"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J79" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K79" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L79" s="25"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E80" s="13" t="n">
+      <c r="C80" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" s="14" t="n">
         <v>1.78</v>
       </c>
-      <c r="F80" s="13" t="n">
+      <c r="F80" s="14" t="n">
         <v>0.99</v>
       </c>
       <c r="G80" s="10"/>
-      <c r="H80" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I80" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J80" s="13" t="n">
+      <c r="H80" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I80" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J80" s="14" t="n">
         <v>3.4</v>
       </c>
-      <c r="K80" s="13" t="n">
+      <c r="K80" s="14" t="n">
         <v>1.3</v>
       </c>
-      <c r="L80" s="20"/>
+      <c r="L80" s="25"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C81" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E81" s="21" t="n">
+      <c r="C81" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81" s="26" t="n">
         <v>2.08</v>
       </c>
-      <c r="F81" s="21" t="n">
+      <c r="F81" s="26" t="n">
         <v>1.21</v>
       </c>
       <c r="G81" s="10"/>
-      <c r="H81" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I81" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="J81" s="21" t="n">
+      <c r="H81" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I81" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="J81" s="26" t="n">
         <v>1.81</v>
       </c>
-      <c r="K81" s="21" t="n">
+      <c r="K81" s="26" t="n">
         <v>0.68</v>
       </c>
-      <c r="L81" s="20"/>
+      <c r="L81" s="25"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E82" s="13" t="n">
+      <c r="C82" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82" s="14" t="n">
         <v>1.24</v>
       </c>
-      <c r="F82" s="13" t="n">
+      <c r="F82" s="14" t="n">
         <v>0.14</v>
       </c>
       <c r="G82" s="10"/>
-      <c r="H82" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J82" s="13" t="n">
+      <c r="H82" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I82" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" s="14" t="n">
         <v>5.69</v>
       </c>
-      <c r="K82" s="13" t="n">
+      <c r="K82" s="14" t="n">
         <v>1.57</v>
       </c>
-      <c r="L82" s="20"/>
+      <c r="L82" s="25"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C83" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E83" s="14" t="n">
+      <c r="C83" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E83" s="15" t="n">
         <v>1.42</v>
       </c>
-      <c r="F83" s="14" t="n">
+      <c r="F83" s="15" t="n">
         <v>1.26</v>
       </c>
       <c r="G83" s="10"/>
-      <c r="H83" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I83" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J83" s="14" t="n">
+      <c r="H83" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J83" s="15" t="n">
         <v>3.17</v>
       </c>
-      <c r="K83" s="14" t="n">
+      <c r="K83" s="15" t="n">
         <v>1.18</v>
       </c>
-      <c r="L83" s="20"/>
+      <c r="L83" s="25"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="16" t="s">
+      <c r="C84" s="19"/>
+      <c r="D84" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G84" s="10"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J84" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K84" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L84" s="20"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J84" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K84" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84" s="25"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" s="16" t="s">
+      <c r="C85" s="19"/>
+      <c r="D85" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G85" s="10"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J85" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K85" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L85" s="20"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J85" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K85" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85" s="25"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C86" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E86" s="21" t="n">
+      <c r="C86" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E86" s="26" t="n">
         <v>1.31</v>
       </c>
-      <c r="F86" s="21" t="n">
+      <c r="F86" s="26" t="n">
         <v>0.78</v>
       </c>
       <c r="G86" s="10"/>
-      <c r="H86" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="I86" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="J86" s="21" t="n">
+      <c r="H86" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="I86" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="J86" s="26" t="n">
         <v>3.07</v>
       </c>
-      <c r="K86" s="21" t="n">
+      <c r="K86" s="26" t="n">
         <v>1.14</v>
       </c>
-      <c r="L86" s="20"/>
+      <c r="L86" s="25"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E87" s="14" t="n">
+      <c r="C87" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E87" s="15" t="n">
         <v>1.2</v>
       </c>
-      <c r="F87" s="14" t="n">
+      <c r="F87" s="15" t="n">
         <v>1.56</v>
       </c>
       <c r="G87" s="10"/>
-      <c r="H87" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I87" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J87" s="14" t="n">
+      <c r="H87" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="I87" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J87" s="15" t="n">
         <v>4.68</v>
       </c>
-      <c r="K87" s="14" t="n">
+      <c r="K87" s="15" t="n">
         <v>1.38</v>
       </c>
-      <c r="L87" s="20"/>
+      <c r="L87" s="25"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F88" s="16" t="s">
+      <c r="C88" s="19"/>
+      <c r="D88" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G88" s="10"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J88" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K88" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L88" s="20"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J88" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K88" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L88" s="25"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E89" s="21" t="n">
+      <c r="C89" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D89" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" s="26" t="n">
         <v>2.4</v>
       </c>
-      <c r="F89" s="21" t="n">
+      <c r="F89" s="26" t="n">
         <v>1.08</v>
       </c>
       <c r="G89" s="10"/>
-      <c r="H89" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="I89" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="J89" s="21" t="n">
+      <c r="H89" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="I89" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="J89" s="26" t="n">
         <v>3.86</v>
       </c>
-      <c r="K89" s="21" t="n">
+      <c r="K89" s="26" t="n">
         <v>0.95</v>
       </c>
-      <c r="L89" s="20"/>
+      <c r="L89" s="25"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C90" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E90" s="21" t="n">
+      <c r="C90" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="26" t="n">
         <v>0.84</v>
       </c>
-      <c r="F90" s="21" t="n">
+      <c r="F90" s="26" t="n">
         <v>0.64</v>
       </c>
       <c r="G90" s="10"/>
-      <c r="H90" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="I90" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="J90" s="21" t="n">
+      <c r="H90" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="I90" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="J90" s="26" t="n">
         <v>5.3</v>
       </c>
-      <c r="K90" s="21" t="n">
+      <c r="K90" s="26" t="n">
         <v>1.52</v>
       </c>
-      <c r="L90" s="20"/>
+      <c r="L90" s="25"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" s="16" t="s">
+      <c r="C91" s="19"/>
+      <c r="D91" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G91" s="10"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J91" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K91" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L91" s="20"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J91" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K91" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91" s="25"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C92" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E92" s="21" t="n">
+      <c r="C92" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="E92" s="26" t="n">
         <v>2.98</v>
       </c>
-      <c r="F92" s="21" t="n">
+      <c r="F92" s="26" t="n">
         <v>1.06</v>
       </c>
       <c r="G92" s="10"/>
-      <c r="H92" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I92" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="J92" s="21" t="n">
+      <c r="H92" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I92" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J92" s="26" t="n">
         <v>0.68</v>
       </c>
-      <c r="K92" s="21" t="n">
+      <c r="K92" s="26" t="n">
         <v>0.78</v>
       </c>
-      <c r="L92" s="20"/>
+      <c r="L92" s="25"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="18"/>
-      <c r="C93" s="19" t="s">
+      <c r="B93" s="23"/>
+      <c r="C93" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="20"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="25"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="18"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="19"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="20"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="25"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F95" s="9"/>
       <c r="G95" s="10"/>
       <c r="H95" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K95" s="9"/>
-      <c r="L95" s="20"/>
+      <c r="L95" s="25"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="8"/>
-      <c r="C96" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E96" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>41</v>
+      <c r="C96" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="G96" s="10"/>
-      <c r="H96" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="I96" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J96" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K96" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L96" s="20"/>
+      <c r="H96" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J96" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L96" s="25"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E97" s="14" t="n">
+      <c r="C97" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E97" s="15" t="n">
         <v>6.62</v>
       </c>
-      <c r="F97" s="14" t="n">
+      <c r="F97" s="15" t="n">
         <v>1.46</v>
       </c>
       <c r="G97" s="10"/>
-      <c r="H97" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I97" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="J97" s="14" t="n">
+      <c r="H97" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J97" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="K97" s="14" t="n">
+      <c r="K97" s="15" t="n">
         <v>0.7</v>
       </c>
-      <c r="L97" s="20"/>
+      <c r="L97" s="25"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C98" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E98" s="21" t="n">
+      <c r="C98" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" s="26" t="n">
         <v>4.6</v>
       </c>
-      <c r="F98" s="21" t="n">
+      <c r="F98" s="26" t="n">
         <v>0.15</v>
       </c>
       <c r="G98" s="10"/>
-      <c r="H98" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I98" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="J98" s="21" t="n">
+      <c r="H98" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I98" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="J98" s="26" t="n">
         <v>1.23</v>
       </c>
-      <c r="K98" s="21" t="n">
+      <c r="K98" s="26" t="n">
         <v>0.64</v>
       </c>
-      <c r="L98" s="20"/>
+      <c r="L98" s="25"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E99" s="14" t="n">
+      <c r="C99" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E99" s="15" t="n">
         <v>8.81</v>
       </c>
-      <c r="F99" s="14" t="n">
+      <c r="F99" s="15" t="n">
         <v>1.56</v>
       </c>
       <c r="G99" s="10"/>
-      <c r="H99" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I99" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J99" s="14" t="n">
+      <c r="H99" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I99" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J99" s="15" t="n">
         <v>7.67</v>
       </c>
-      <c r="K99" s="14" t="n">
+      <c r="K99" s="15" t="n">
         <v>1.24</v>
       </c>
-      <c r="L99" s="20"/>
+      <c r="L99" s="25"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E100" s="21" t="n">
+      <c r="C100" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="D100" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E100" s="26" t="n">
         <v>2.9</v>
       </c>
-      <c r="F100" s="21" t="n">
+      <c r="F100" s="26" t="n">
         <v>1.27</v>
       </c>
       <c r="G100" s="10"/>
-      <c r="H100" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I100" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="J100" s="21" t="n">
+      <c r="H100" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I100" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J100" s="26" t="n">
         <v>11.95</v>
       </c>
-      <c r="K100" s="21" t="n">
+      <c r="K100" s="26" t="n">
         <v>0.23</v>
       </c>
-      <c r="L100" s="20"/>
+      <c r="L100" s="25"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E101" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" s="16" t="s">
+      <c r="C101" s="19"/>
+      <c r="D101" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G101" s="10"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J101" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K101" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L101" s="20"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J101" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K101" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L101" s="25"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C102" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E102" s="13" t="n">
+      <c r="C102" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E102" s="14" t="n">
         <v>2.41</v>
       </c>
-      <c r="F102" s="13" t="n">
+      <c r="F102" s="14" t="n">
         <v>0.09</v>
       </c>
       <c r="G102" s="10"/>
-      <c r="H102" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I102" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="J102" s="13" t="n">
+      <c r="H102" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I102" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J102" s="14" t="n">
         <v>8.03</v>
       </c>
-      <c r="K102" s="13" t="n">
+      <c r="K102" s="14" t="n">
         <v>1.37</v>
       </c>
-      <c r="L102" s="20"/>
+      <c r="L102" s="25"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C103" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E103" s="21" t="n">
+      <c r="C103" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D103" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" s="26" t="n">
         <v>6.76</v>
       </c>
-      <c r="F103" s="21" t="n">
+      <c r="F103" s="26" t="n">
         <v>0.72</v>
       </c>
       <c r="G103" s="10"/>
-      <c r="H103" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="I103" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="J103" s="21" t="n">
+      <c r="H103" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="I103" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="J103" s="26" t="n">
         <v>10.61</v>
       </c>
-      <c r="K103" s="21" t="n">
+      <c r="K103" s="26" t="n">
         <v>0.98</v>
       </c>
-      <c r="L103" s="20"/>
+      <c r="L103" s="25"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="E104" s="13" t="n">
+      <c r="C104" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E104" s="14" t="n">
         <v>2.47</v>
       </c>
-      <c r="F104" s="13" t="n">
+      <c r="F104" s="14" t="n">
         <v>1.04</v>
       </c>
       <c r="G104" s="10"/>
-      <c r="H104" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I104" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="J104" s="13" t="n">
+      <c r="H104" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J104" s="14" t="n">
         <v>7.92</v>
       </c>
-      <c r="K104" s="13" t="n">
+      <c r="K104" s="14" t="n">
         <v>1.39</v>
       </c>
-      <c r="L104" s="20"/>
+      <c r="L104" s="25"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C105" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="E105" s="14" t="n">
+      <c r="C105" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E105" s="15" t="n">
         <v>2.27</v>
       </c>
-      <c r="F105" s="14" t="n">
+      <c r="F105" s="15" t="n">
         <v>1.01</v>
       </c>
       <c r="G105" s="10"/>
-      <c r="H105" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I105" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="J105" s="14" t="n">
+      <c r="H105" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I105" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J105" s="15" t="n">
         <v>11.27</v>
       </c>
-      <c r="K105" s="14" t="n">
+      <c r="K105" s="15" t="n">
         <v>1.53</v>
       </c>
-      <c r="L105" s="20"/>
+      <c r="L105" s="25"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C106" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="E106" s="21" t="n">
+      <c r="C106" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" s="26" t="n">
         <v>5.24</v>
       </c>
-      <c r="F106" s="21" t="n">
+      <c r="F106" s="26" t="n">
         <v>0.23</v>
       </c>
       <c r="G106" s="10"/>
-      <c r="H106" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="I106" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="J106" s="21" t="n">
+      <c r="H106" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I106" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="J106" s="26" t="n">
         <v>4.46</v>
       </c>
-      <c r="K106" s="21" t="n">
+      <c r="K106" s="26" t="n">
         <v>0.88</v>
       </c>
-      <c r="L106" s="20"/>
+      <c r="L106" s="25"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="16" t="s">
+      <c r="C107" s="19"/>
+      <c r="D107" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G107" s="10"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J107" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K107" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L107" s="20"/>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J107" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L107" s="25"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C108" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="E108" s="21" t="n">
+      <c r="C108" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="E108" s="26" t="n">
         <v>0.22</v>
       </c>
-      <c r="F108" s="21" t="n">
+      <c r="F108" s="26" t="n">
         <v>0.39</v>
       </c>
       <c r="G108" s="10"/>
-      <c r="H108" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="I108" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="J108" s="21" t="n">
+      <c r="H108" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I108" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="J108" s="26" t="n">
         <v>5.28</v>
       </c>
-      <c r="K108" s="21" t="n">
+      <c r="K108" s="26" t="n">
         <v>0.87</v>
       </c>
-      <c r="L108" s="20"/>
+      <c r="L108" s="25"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="E109" s="14" t="n">
+      <c r="C109" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E109" s="15" t="n">
         <v>1.58</v>
       </c>
-      <c r="F109" s="14" t="n">
+      <c r="F109" s="15" t="n">
         <v>0.11</v>
       </c>
       <c r="G109" s="10"/>
-      <c r="H109" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="I109" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="J109" s="14" t="n">
+      <c r="H109" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="I109" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="J109" s="15" t="n">
         <v>7.46</v>
       </c>
-      <c r="K109" s="14" t="n">
+      <c r="K109" s="15" t="n">
         <v>1.32</v>
       </c>
-      <c r="L109" s="20"/>
+      <c r="L109" s="25"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C110" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D110" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E110" s="21" t="n">
+      <c r="C110" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D110" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="E110" s="26" t="n">
         <v>4.89</v>
       </c>
-      <c r="F110" s="21" t="n">
+      <c r="F110" s="26" t="n">
         <v>0.96</v>
       </c>
       <c r="G110" s="10"/>
-      <c r="H110" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="I110" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="J110" s="21" t="n">
+      <c r="H110" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="I110" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="J110" s="26" t="n">
         <v>5.37</v>
       </c>
-      <c r="K110" s="21" t="n">
+      <c r="K110" s="26" t="n">
         <v>0.99</v>
       </c>
-      <c r="L110" s="20"/>
+      <c r="L110" s="25"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C111" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D111" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="E111" s="21" t="n">
+      <c r="C111" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D111" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E111" s="26" t="n">
         <v>8.55</v>
       </c>
-      <c r="F111" s="21" t="n">
+      <c r="F111" s="26" t="n">
         <v>0.85</v>
       </c>
       <c r="G111" s="10"/>
-      <c r="H111" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I111" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="J111" s="21" t="n">
+      <c r="H111" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="I111" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="J111" s="26" t="n">
         <v>7.34</v>
       </c>
-      <c r="K111" s="21" t="n">
+      <c r="K111" s="26" t="n">
         <v>0.53</v>
       </c>
-      <c r="L111" s="20"/>
+      <c r="L111" s="25"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C112" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="E112" s="21" t="n">
+      <c r="C112" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D112" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E112" s="26" t="n">
         <v>8.86</v>
       </c>
-      <c r="F112" s="21" t="n">
+      <c r="F112" s="26" t="n">
         <v>0.73</v>
       </c>
       <c r="G112" s="10"/>
-      <c r="H112" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="I112" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="J112" s="21" t="n">
+      <c r="H112" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="I112" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="J112" s="26" t="n">
         <v>2.76</v>
       </c>
-      <c r="K112" s="21" t="n">
+      <c r="K112" s="26" t="n">
         <v>0.28</v>
       </c>
-      <c r="L112" s="20"/>
+      <c r="L112" s="25"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E113" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="16" t="s">
+      <c r="C113" s="19"/>
+      <c r="D113" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G113" s="10"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J113" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K113" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L113" s="20"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J113" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K113" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L113" s="25"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E114" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="16" t="s">
+      <c r="C114" s="19"/>
+      <c r="D114" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G114" s="10"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J114" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="K114" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L114" s="20"/>
+      <c r="H114" s="19"/>
+      <c r="I114" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J114" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K114" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="L114" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
+  <mergeCells count="112">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:D3"/>
@@ -4157,6 +4521,8 @@
     <mergeCell ref="Q26:Q45"/>
     <mergeCell ref="R26:U26"/>
     <mergeCell ref="V26:V27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:AA26"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="C31:F31"/>
@@ -4261,6 +4627,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4275,7 +4642,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
